--- a/biology/Zoologie/Akalat_à_poitrine_tachetée/Akalat_à_poitrine_tachetée.xlsx
+++ b/biology/Zoologie/Akalat_à_poitrine_tachetée/Akalat_à_poitrine_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pellorneum ruficeps
 L’Akalat à poitrine tachetée ou Timalie à poitrine tachetée (Pellorneum ruficeps) est une espèce de passereau de la famille des Pellorneidae. Elle a auparavant été classée par Monroe &amp; Sibley dans les Sylviidae puis dans celle des Timaliidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'akalat à poitrine tachetée mesure jusqu'à 16 cm de long[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'akalat à poitrine tachetée mesure jusqu'à 16 cm de long.  
 Cet oiseau est brun au-dessus et blanc fortement strié de brun en dessous. Il a une couronne marron, de longs super-cils chamois et la gorge blanche hérissée. Il possède de courtes ailes arrondies et un vol faible. 
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marche souvent dans les sous-bois à la recherche d'insectes dont elle se nourrit, un peu à première vue comme la Grive musicienne. Il se déplace en petit groupe.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans l'Himalaya, la jungle des collines de l'Inde et certaines régions de l'Asie du Sud-Est continental.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce habite les maquis et les massifs de bambous jusqu'à 1300 m d'altitude.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau construit son nid sur le sol, y déposant 2 à 5 œufs.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_poitrine_tachet%C3%A9e</t>
+          <t>Akalat_à_poitrine_tachetée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Selon A. Peterson, cet oiseau est représenté par 28 sous-espèces :
 Pellorneum ruficeps acrum Deignan 1947 ;
